--- a/public/uploads/files/import_outlet_excel_template.xlsx
+++ b/public/uploads/files/import_outlet_excel_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\hessen\public\uploads\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BB5A9DF-13A6-4820-BF36-5E31181CC2F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6AEDC0C-D100-4696-AD30-E48BAC2D0160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1725" yWindow="2445" windowWidth="15375" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Email</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t>NPWP No</t>
+  </si>
+  <si>
+    <t>Distributor</t>
   </si>
 </sst>
 </file>
@@ -65,6 +68,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -394,10 +398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -411,9 +415,10 @@
     <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -440,6 +445,9 @@
       </c>
       <c r="I1" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
